--- a/Testing/testing checklist.xlsx
+++ b/Testing/testing checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Tester</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Mega WiFi</t>
   </si>
   <si>
-    <t>Ops</t>
-  </si>
-  <si>
     <t>Decoder</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t xml:space="preserve">  F2 - Horn</t>
   </si>
   <si>
-    <t xml:space="preserve">  F3 F28</t>
-  </si>
-  <si>
-    <t>Prog</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Read CV</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>Sensors</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>DCC-EX Testing Checklist</t>
   </si>
   <si>
@@ -113,13 +101,55 @@
     <t xml:space="preserve">  WiFi</t>
   </si>
   <si>
-    <t>WiThrottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  AP Mode</t>
-  </si>
-  <si>
     <t>checkboxes to the right can allow dropdown selection from cells:</t>
+  </si>
+  <si>
+    <t>Motor Shield</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>WiFi/Ethernet Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  F3-F28</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;1&gt; On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;0&gt; Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;1 JOIN&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;0&gt; (remove Join)</t>
+  </si>
+  <si>
+    <t>WITHROTTLE / ENGINE DRVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AP Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    STATION Mode</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
   </si>
 </sst>
 </file>
@@ -261,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -276,6 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,14 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:F30" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A13:G38" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Test"/>
     <tableColumn id="2" name="FireBox"/>
     <tableColumn id="3" name="Uno"/>
     <tableColumn id="4" name="Mega"/>
     <tableColumn id="5" name="Uno Wifi"/>
     <tableColumn id="6" name="Mega WiFi"/>
+    <tableColumn id="7" name="Issues"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,293 +602,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="9">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F40" s="9">
         <v>-1</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -865,7 +1002,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F40">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -875,12 +1012,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E32:F32">
+    <dataValidation type="list" allowBlank="1" sqref="E40:F40">
       <formula1>"1,0,-1"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
